--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+  <si>
+    <t>Fan Effort (%)</t>
+  </si>
+  <si>
+    <t>Air Pump Effort (%)</t>
+  </si>
+  <si>
+    <t>TC On (Y/N)</t>
+  </si>
+  <si>
+    <t>Syg Pump Vol (uL)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>User Resume (Y/N)</t>
+  </si>
+  <si>
+    <t>Duration (xxh-xxm-xxs)</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t># Ramp to -10.5C as fast as possible then hold until 1s elapses, 100% fan effort, pump 20uL of water at start of ramp</t>
+  </si>
+  <si>
+    <t># Run the air pump at 100% for 1s</t>
+  </si>
+  <si>
+    <t># Enable TC control, ramp to 25C, it will move to the next block at 1s whether or not you are at 25C</t>
+  </si>
+  <si>
+    <t># This is a comment, This step will do nothing and wait for the user to resume after 1s</t>
+  </si>
+  <si>
+    <t># TC will stop powering and quickly return to room temp, syringe will try to withdraw 100ul, will delay 1s</t>
+  </si>
+  <si>
+    <t>Syg Pump Rate (uL/min)</t>
+  </si>
+  <si>
+    <t># Max values</t>
+  </si>
+  <si>
+    <t>9999h-9999m-9999s</t>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t># Min values</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
   <si>
     <r>
-      <t>SP Temp (C</t>
+      <t>SP Temp Set Point (C</t>
     </r>
     <r>
       <rPr>
@@ -30,52 +111,19 @@
     </r>
   </si>
   <si>
-    <t>Fan Effort (%)</t>
-  </si>
-  <si>
-    <t>Air Pump Effort (%)</t>
-  </si>
-  <si>
-    <t>TC On (Y/N)</t>
-  </si>
-  <si>
-    <t>Syg Pump Vol (uL)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>User Resume (Y/N)</t>
-  </si>
-  <si>
-    <t>Duration (xxh-xxm-xxs)</t>
-  </si>
-  <si>
-    <t>1s</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t># Ramp to -10.5C as fast as possible then hold until 1s elapses, 100% fan effort, pump 20uL of water at start of ramp</t>
-  </si>
-  <si>
-    <t># Run the air pump at 100% for 1s</t>
-  </si>
-  <si>
-    <t># Enable TC control, ramp to 25C, it will move to the next block at 1s whether or not you are at 25C</t>
-  </si>
-  <si>
-    <t># This is a comment, This step will do nothing and wait for the user to resume after 1s</t>
-  </si>
-  <si>
-    <t># TC will stop powering and quickly return to room temp, syringe will try to withdraw 100ul, will delay 1s</t>
-  </si>
-  <si>
-    <t>Syg Pump Rate (uL/min)</t>
+    <t>ExperimentNum: 0001</t>
+  </si>
+  <si>
+    <t>GizmoNum: 0001</t>
+  </si>
+  <si>
+    <t>Date: 2014.11.21</t>
+  </si>
+  <si>
+    <t>Observations:</t>
+  </si>
+  <si>
+    <t>Step Number</t>
   </si>
 </sst>
 </file>
@@ -429,195 +477,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="118.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E17" s="2">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-10.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>500</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-10.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-100</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1900</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E21" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-10.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>500</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-10.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-100</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
+      <c r="K21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
